--- a/0_File/1_Data/007_音效表.xlsx
+++ b/0_File/1_Data/007_音效表.xlsx
@@ -1,21 +1,261 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="SoundData" sheetId="1" r:id="rId1"/>
+    <sheet name="#欄位說明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_ID</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>音效名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_Volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_SoundName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音量倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_Loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否重複播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消/關閉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI打開</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI關閉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM相關</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲標題介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大廳準備室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般戰鬥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss戰鬥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醫療室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉場演出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色1語音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通關</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防禦技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色2語音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪語音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss語音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位格式</t>
+  </si>
+  <si>
+    <t>欄位英文</t>
+  </si>
+  <si>
+    <t>欄位中文</t>
+  </si>
+  <si>
+    <t>欄位內容說明</t>
+  </si>
+  <si>
+    <t>SoundData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用規則說明</t>
+  </si>
+  <si>
+    <t>註1</t>
+  </si>
+  <si>
+    <t>n_xxxx</t>
+  </si>
+  <si>
+    <t>n代表這格資料為單數</t>
+  </si>
+  <si>
+    <t>註2</t>
+  </si>
+  <si>
+    <t>an_xxx</t>
+  </si>
+  <si>
+    <t>an代表這格資料為陣列</t>
+  </si>
+  <si>
+    <t>註3</t>
+  </si>
+  <si>
+    <t>代表該欄位或工作表不輸出</t>
+  </si>
+  <si>
+    <t>給其他表格讀取音效ID使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示說明音效使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制音量大小(通常會是100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制是否重複播放 (通常只有BGM類)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -23,16 +263,109 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF2CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -40,23 +373,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +502,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +537,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +745,957 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="str">
+        <f>C5&amp;D5</f>
+        <v>101</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9">
+        <f>C4</f>
+        <v>10</v>
+      </c>
+      <c r="D5" s="9">
+        <f>D4+1</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="str">
+        <f t="shared" ref="A6:A17" si="0">C6&amp;D6</f>
+        <v>102</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9">
+        <f>C5</f>
+        <v>10</v>
+      </c>
+      <c r="D6" s="9">
+        <f>D5+1</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9">
+        <f>C6</f>
+        <v>10</v>
+      </c>
+      <c r="D7" s="9">
+        <f>D6+1</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="9">
+        <f>C7</f>
+        <v>10</v>
+      </c>
+      <c r="D8" s="9">
+        <f>D7+1</f>
+        <v>4</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" ref="C9" si="1">C8</f>
+        <v>10</v>
+      </c>
+      <c r="D9" s="9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="10">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" ref="C11:C14" si="2">C10</f>
+        <v>20</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" ref="D11:D14" si="3">D10+1</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" ref="C15:C17" si="4">C14</f>
+        <v>20</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" ref="D15:D17" si="5">D14+1</f>
+        <v>5</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="9">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="10">
+        <v>100</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="str">
+        <f t="shared" ref="A19:A23" si="6">C19&amp;D19</f>
+        <v>1001</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="9">
+        <f t="shared" ref="C19:C21" si="7">C18</f>
+        <v>100</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" ref="D19:D21" si="8">D18+1</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>1002</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>1003</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>1004</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" ref="C22:C23" si="9">C21</f>
+        <v>100</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" ref="D22:D23" si="10">D21+1</f>
+        <v>4</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>1005</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="10">
+        <v>101</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="str">
+        <f t="shared" ref="A25:A29" si="11">C25&amp;D25</f>
+        <v>1011</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" ref="C25:C29" si="12">C24</f>
+        <v>101</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" ref="D25:D29" si="13">D24+1</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>1012</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="12"/>
+        <v>101</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>1013</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="9">
+        <f t="shared" si="12"/>
+        <v>101</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>1014</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" si="12"/>
+        <v>101</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>1015</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" si="12"/>
+        <v>101</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="10">
+        <v>200</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="str">
+        <f t="shared" ref="A31:A32" si="14">C31&amp;D31</f>
+        <v>2001</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" ref="C31:C32" si="15">C30</f>
+        <v>200</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" ref="D31:D32" si="16">D30+1</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>2002</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="9">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+      <c r="D32" s="9">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="10">
+        <v>201</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="str">
+        <f t="shared" ref="A34:A37" si="17">C34&amp;D34</f>
+        <v>2011</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" ref="C34:C37" si="18">C33</f>
+        <v>201</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" ref="D34:D37" si="19">D33+1</f>
+        <v>1</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>2012</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="9">
+        <f t="shared" si="18"/>
+        <v>201</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>2013</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="9">
+        <f t="shared" si="18"/>
+        <v>201</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>2014</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="9">
+        <f t="shared" si="18"/>
+        <v>201</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>